--- a/2к класс/ТЕКУЩИЕ ОЦЕНКИ.xlsx
+++ b/2к класс/ТЕКУЩИЕ ОЦЕНКИ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="576" windowWidth="11652" windowHeight="5364" activeTab="1"/>
+    <workbookView xWindow="636" yWindow="576" windowWidth="11652" windowHeight="5364"/>
   </bookViews>
   <sheets>
     <sheet name="2К" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Государственное бюджетное общеобразовательное учреждение средняя общеобразовательная школа № 574 Невского района Санкт-Петербурга</t>
   </si>
@@ -180,6 +180,33 @@
   </si>
   <si>
     <t>4-</t>
+  </si>
+  <si>
+    <t>26  04</t>
+  </si>
+  <si>
+    <t>26 04</t>
+  </si>
+  <si>
+    <t>28 04</t>
+  </si>
+  <si>
+    <t>29 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Занятие 28.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лиза неплохо. </t>
+  </si>
+  <si>
+    <t>С Лили и Ани я начну все спрашивать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первое место за работу на уроке присуждается Рома, Герман! Ребят в этот раз вы правда были лучшими! Великолепно! Спасибо! Также просто молодцы, как и всегда Лиза Андреева, Тима, Тая, Сеня, Ксюша Васильева - в этот раз - умничка моя ! Гладченко Ксюша - умничка, и еще здорово, что сама освоила как иероглифы на телефон вводить - молодец! Мирра.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Особые молодцы - Маша, Тима, Максим- супер.спасибо вам за поддержку и отличные ответы!  Сережа, Клим, Настя, Арина- умнички мои. Остальные тоже молодцы, просто чуть менее активные) </t>
   </si>
 </sst>
 </file>
@@ -359,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -419,21 +446,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -559,11 +571,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -583,43 +643,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,9 +683,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,9 +720,31 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -683,10 +757,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,20 +768,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1007,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1019,99 +1106,101 @@
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="23" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="27" width="8.6640625" customWidth="1"/>
+    <col min="9" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="37.33203125" customWidth="1"/>
+    <col min="13" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
-      <c r="A1" s="47"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.4">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:12" ht="14.4">
+      <c r="A1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.4">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="30"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-    </row>
-    <row r="8" spans="1:10" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-    </row>
-    <row r="9" spans="1:10" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="1:12" ht="14.4">
+      <c r="A6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="1:12" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:12" ht="40.200000000000003" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="34" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1120,240 +1209,282 @@
       <c r="H9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A10" s="12">
+      <c r="K9" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="37">
-        <v>5</v>
-      </c>
-      <c r="E10" s="57"/>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="63"/>
       <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10">
+      <c r="G10" s="37"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40">
         <v>4</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A11" s="12">
+      <c r="K10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="37">
-        <v>5</v>
-      </c>
-      <c r="E11" s="57"/>
+      <c r="D11" s="29">
+        <v>5</v>
+      </c>
+      <c r="E11" s="63"/>
       <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A12" s="12">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="6">
         <v>5</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="14">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="42">
+        <v>5</v>
+      </c>
+      <c r="I12" s="40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A13" s="12">
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="6">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A14" s="12">
-        <v>5</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="G13" s="37">
+        <v>5</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A14" s="9">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="6">
         <v>5</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="22">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="43">
+        <v>5</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A15" s="12">
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A15" s="9">
         <v>6</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="6">
         <v>5</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="14">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.2" thickBot="1">
-      <c r="A16" s="12">
+      <c r="H15" s="42">
+        <v>5</v>
+      </c>
+      <c r="I15" s="40">
+        <v>5</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="63"/>
       <c r="F16" s="6">
         <v>5</v>
       </c>
-      <c r="G16" s="6">
-        <v>5</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="37">
+        <v>5</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A17" s="12">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A17" s="9">
         <v>8</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="5">
         <v>5</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="6">
         <v>5</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A18" s="12">
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="71"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A18" s="9">
         <v>9</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="27">
         <v>4</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="6">
         <v>5</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" t="s">
+      <c r="H18" s="39"/>
+      <c r="I18" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A19" s="12">
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A19" s="9">
         <v>10</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="5">
@@ -1362,136 +1493,160 @@
       <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="6">
         <v>5</v>
       </c>
-      <c r="G19" s="6">
-        <v>5</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.2" thickBot="1">
-      <c r="A20" s="12">
+      <c r="G19" s="37">
+        <v>5</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A20" s="9">
         <v>11</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="27">
         <v>4</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="6">
         <v>5</v>
       </c>
-      <c r="G20" s="6">
-        <v>5</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="61" t="s">
+      <c r="G20" s="37">
+        <v>5</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="12">
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="9">
         <v>12</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="30">
         <v>4</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="6">
         <v>5</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="9"/>
-      <c r="I21" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="12">
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="71"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="9">
         <v>13</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="63"/>
       <c r="F22" s="6">
         <v>5</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="9">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="12">
+      <c r="G22" s="37"/>
+      <c r="H22" s="39">
+        <v>5</v>
+      </c>
+      <c r="I22" s="40">
+        <v>5</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="9">
         <v>14</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="57"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="15">
+      <c r="H23" s="42"/>
+      <c r="I23" s="40">
+        <v>5</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="11">
         <v>15</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="D24" s="37">
-        <v>5</v>
-      </c>
-      <c r="E24" s="57"/>
+      <c r="D24" s="29">
+        <v>5</v>
+      </c>
+      <c r="E24" s="63"/>
       <c r="F24" s="6">
         <v>5</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="16">
+      <c r="G24" s="37"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="12">
         <v>16</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="5">
@@ -1500,104 +1655,116 @@
       <c r="D25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="6">
         <v>5</v>
       </c>
-      <c r="G25" s="6">
-        <v>5</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="13">
+      <c r="G25" s="37">
+        <v>5</v>
+      </c>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="10">
         <v>17</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="57"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="58"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="46"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="46"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A29" s="51"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A31" s="52"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="46"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:7" ht="15.75" customHeight="1"/>
@@ -2566,7 +2733,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="L14:L22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="B31:C31"/>
@@ -2595,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2611,36 +2779,38 @@
     <col min="6" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" customWidth="1"/>
+    <col min="12" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="47"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="1" spans="1:12" ht="14.4">
+      <c r="A1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.4">
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2648,377 +2818,455 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" ht="10.199999999999999" customHeight="1" thickBot="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-    </row>
-    <row r="8" spans="1:8" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:12" ht="14.4">
+      <c r="A5" s="53"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A6" s="59"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" ht="10.199999999999999" customHeight="1" thickBot="1">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A9" s="20">
+      <c r="I8" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="41">
-        <v>5</v>
-      </c>
-      <c r="F9" s="41">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A10" s="15">
+      <c r="E9" s="33">
+        <v>5</v>
+      </c>
+      <c r="F9" s="33">
+        <v>5</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A10" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="24">
-        <v>5</v>
-      </c>
-      <c r="D10" s="24">
-        <v>5</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>5</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A11" s="12">
+      <c r="I10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="24">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24">
-        <v>5</v>
-      </c>
-      <c r="E11" s="41">
-        <v>5</v>
-      </c>
-      <c r="F11" s="25" t="s">
+      <c r="C11" s="19">
+        <v>5</v>
+      </c>
+      <c r="D11" s="19">
+        <v>5</v>
+      </c>
+      <c r="E11" s="33">
+        <v>5</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A12" s="12">
+      <c r="G11" s="46"/>
+      <c r="H11" s="40">
+        <v>5</v>
+      </c>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="41">
-        <v>5</v>
-      </c>
-      <c r="F12" s="43">
-        <v>5</v>
-      </c>
-      <c r="G12" s="27"/>
-      <c r="H12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A13" s="12">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="E12" s="33">
+        <v>5</v>
+      </c>
+      <c r="F12" s="35">
+        <v>5</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="40">
+        <v>5</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A13" s="9">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="46" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A14" s="12">
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A14" s="9">
         <v>6</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="24">
-        <v>5</v>
-      </c>
-      <c r="D14" s="24">
-        <v>5</v>
-      </c>
-      <c r="E14" s="41" t="s">
+      <c r="C14" s="19">
+        <v>5</v>
+      </c>
+      <c r="D14" s="19">
+        <v>5</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A15" s="12">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.2" customHeight="1" thickBot="1">
+      <c r="A15" s="9">
         <v>7</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24">
-        <v>5</v>
-      </c>
-      <c r="E15" s="41">
-        <v>5</v>
-      </c>
-      <c r="F15" s="43">
-        <v>5</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A16" s="12">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19">
+        <v>5</v>
+      </c>
+      <c r="E15" s="33">
+        <v>5</v>
+      </c>
+      <c r="F15" s="35">
+        <v>5</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="40">
+        <v>5</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A16" s="9">
         <v>8</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19">
         <v>4</v>
       </c>
-      <c r="E16" s="41">
-        <v>5</v>
-      </c>
-      <c r="F16" s="25" t="s">
+      <c r="E16" s="33">
+        <v>5</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A17" s="12">
+      <c r="G16" s="46"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A17" s="9">
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24">
-        <v>5</v>
-      </c>
-      <c r="E17" s="41">
-        <v>5</v>
-      </c>
-      <c r="F17" s="43">
-        <v>5</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A18" s="12">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19">
+        <v>5</v>
+      </c>
+      <c r="E17" s="33">
+        <v>5</v>
+      </c>
+      <c r="F17" s="35">
+        <v>5</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="40">
+        <v>5</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A18" s="9">
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="24">
-        <v>5</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="41">
-        <v>5</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A19" s="12">
+      <c r="C18" s="19">
+        <v>5</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="33">
+        <v>5</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="68"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A19" s="9">
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="24">
-        <v>5</v>
-      </c>
-      <c r="D19" s="24">
-        <v>5</v>
-      </c>
-      <c r="E19" s="41">
-        <v>5</v>
-      </c>
-      <c r="F19" s="43">
-        <v>5</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.2" thickBot="1">
-      <c r="A20" s="12">
+      <c r="C19" s="19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="33">
+        <v>5</v>
+      </c>
+      <c r="F19" s="35">
+        <v>5</v>
+      </c>
+      <c r="G19" s="48"/>
+      <c r="H19" s="40">
+        <v>5</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.2" thickBot="1">
+      <c r="A20" s="9">
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="24">
-        <v>5</v>
-      </c>
-      <c r="D20" s="24">
-        <v>5</v>
-      </c>
-      <c r="E20" s="41">
-        <v>5</v>
-      </c>
-      <c r="F20" s="41">
-        <v>5</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" t="s">
+      <c r="C20" s="19">
+        <v>5</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5</v>
+      </c>
+      <c r="E20" s="33">
+        <v>5</v>
+      </c>
+      <c r="F20" s="33">
+        <v>5</v>
+      </c>
+      <c r="G20" s="48"/>
+      <c r="H20" s="40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="12">
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A21" s="9">
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="24">
-        <v>5</v>
-      </c>
-      <c r="D21" s="24" t="s">
+      <c r="C21" s="19">
+        <v>5</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="41">
-        <v>5</v>
-      </c>
-      <c r="F21" s="43">
-        <v>5</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="12">
+      <c r="E21" s="33">
+        <v>5</v>
+      </c>
+      <c r="F21" s="35">
+        <v>5</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="40">
+        <v>5</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="40"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="9">
         <v>14</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="24">
-        <v>5</v>
-      </c>
-      <c r="D22" s="24">
-        <v>5</v>
-      </c>
-      <c r="E22" s="41">
-        <v>5</v>
-      </c>
-      <c r="F22" s="43">
-        <v>5</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="12">
+      <c r="C22" s="19">
+        <v>5</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5</v>
+      </c>
+      <c r="E22" s="33">
+        <v>5</v>
+      </c>
+      <c r="F22" s="35">
+        <v>5</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="40">
+        <v>5</v>
+      </c>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="9">
         <v>15</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="5">
@@ -3027,89 +3275,102 @@
       <c r="D23" s="5">
         <v>5</v>
       </c>
-      <c r="E23" s="41">
-        <v>5</v>
-      </c>
-      <c r="F23" s="41">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" t="s">
+      <c r="E23" s="33">
+        <v>5</v>
+      </c>
+      <c r="F23" s="33">
+        <v>5</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="40"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="40"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A29" s="52"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A31" s="51"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="52"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -4080,7 +4341,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="B28:C28"/>
@@ -4100,6 +4361,7 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="K9:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2к класс/ТЕКУЩИЕ ОЦЕНКИ.xlsx
+++ b/2к класс/ТЕКУЩИЕ ОЦЕНКИ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>Государственное бюджетное общеобразовательное учреждение средняя общеобразовательная школа № 574 Невского района Санкт-Петербурга</t>
   </si>
@@ -206,7 +206,37 @@
     <t xml:space="preserve">Первое место за работу на уроке присуждается Рома, Герман! Ребят в этот раз вы правда были лучшими! Великолепно! Спасибо! Также просто молодцы, как и всегда Лиза Андреева, Тима, Тая, Сеня, Ксюша Васильева - в этот раз - умничка моя ! Гладченко Ксюша - умничка, и еще здорово, что сама освоила как иероглифы на телефон вводить - молодец! Мирра.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Особые молодцы - Маша, Тима, Максим- супер.спасибо вам за поддержку и отличные ответы!  Сережа, Клим, Настя, Арина- умнички мои. Остальные тоже молодцы, просто чуть менее активные) </t>
+    <t>17 05</t>
+  </si>
+  <si>
+    <t>13 05 работа на уроке</t>
+  </si>
+  <si>
+    <t>17 05 выпонение дз</t>
+  </si>
+  <si>
+    <t>жду</t>
+  </si>
+  <si>
+    <t>жду доделать</t>
+  </si>
+  <si>
+    <t>жду и злюсь</t>
+  </si>
+  <si>
+    <t>5+ умница!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5+ умница</t>
+  </si>
+  <si>
+    <t>5, но в след рак не на уроке</t>
+  </si>
+  <si>
+    <t>жду и снржусь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Особые молодцы - Маша, Тима, Максим- супер.спасибо вам за поддержку и отличные ответы, 5++!  Сережа, Клим, Настя, Арина- умнички, непллохо Остальные тоже молодцы, просто чуть менее активные) </t>
   </si>
 </sst>
 </file>
@@ -623,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -745,8 +775,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -780,21 +825,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1094,9 +1133,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1001"/>
+  <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L14" sqref="L14:L22"/>
     </sheetView>
   </sheetViews>
@@ -1112,41 +1151,43 @@
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="12" width="37.33203125" customWidth="1"/>
-    <col min="13" max="27" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4">
-      <c r="A1" s="53"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.4">
-      <c r="A2" s="54" t="s">
+    <row r="1" spans="1:14" ht="14.4">
+      <c r="A1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.4">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1155,36 +1196,36 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="14.4">
-      <c r="A6" s="53"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:12" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:12" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="1:14" ht="14.4">
+      <c r="A6" s="58"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:14" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:14" ht="40.200000000000003" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1197,7 +1238,7 @@
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="67" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="34" t="s">
@@ -1221,8 +1262,14 @@
       <c r="L9" s="36" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.2" thickBot="1">
+      <c r="M9" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.2" thickBot="1">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1233,7 +1280,7 @@
       <c r="D10" s="29">
         <v>5</v>
       </c>
-      <c r="E10" s="63"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="6">
         <v>5</v>
       </c>
@@ -1251,8 +1298,14 @@
       <c r="L10" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.2" thickBot="1">
+      <c r="M10" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" thickBot="1">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -1265,7 +1318,7 @@
       <c r="D11" s="29">
         <v>5</v>
       </c>
-      <c r="E11" s="63"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="6">
         <v>5</v>
       </c>
@@ -1279,8 +1332,14 @@
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.2" thickBot="1">
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.2" thickBot="1">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -1293,7 +1352,7 @@
       <c r="D12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="63"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="6">
         <v>5</v>
       </c>
@@ -1309,8 +1368,11 @@
       <c r="L12" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.2" thickBot="1">
+      <c r="N12" s="75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" thickBot="1">
       <c r="A13" s="9">
         <v>4</v>
       </c>
@@ -1323,7 +1385,7 @@
       <c r="D13" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="63"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1335,8 +1397,14 @@
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.2" thickBot="1">
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13" s="77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.2" thickBot="1">
       <c r="A14" s="9">
         <v>5</v>
       </c>
@@ -1349,7 +1417,7 @@
       <c r="D14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="63"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="6">
         <v>5</v>
       </c>
@@ -1364,11 +1432,17 @@
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
-      <c r="L14" s="70" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.2" thickBot="1">
+      <c r="L14" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" s="77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" thickBot="1">
       <c r="A15" s="9">
         <v>6</v>
       </c>
@@ -1381,7 +1455,7 @@
       <c r="D15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="63"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="6">
         <v>5</v>
       </c>
@@ -1396,9 +1470,12 @@
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="71"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.2" thickBot="1">
+      <c r="L15" s="56"/>
+      <c r="N15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.2" thickBot="1">
       <c r="A16" s="9">
         <v>7</v>
       </c>
@@ -1411,7 +1488,7 @@
       <c r="D16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="6">
         <v>5</v>
       </c>
@@ -1424,9 +1501,15 @@
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="71"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+      <c r="L16" s="56"/>
+      <c r="M16" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16.2" thickBot="1">
       <c r="A17" s="9">
         <v>8</v>
       </c>
@@ -1439,7 +1522,7 @@
       <c r="D17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="63"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="6">
         <v>5</v>
       </c>
@@ -1450,9 +1533,15 @@
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="71"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+      <c r="L17" s="56"/>
+      <c r="M17" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16.2" thickBot="1">
       <c r="A18" s="9">
         <v>9</v>
       </c>
@@ -1465,7 +1554,7 @@
       <c r="D18" s="27">
         <v>4</v>
       </c>
-      <c r="E18" s="63"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="6">
         <v>5</v>
       </c>
@@ -1478,9 +1567,12 @@
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="71"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+      <c r="L18" s="56"/>
+      <c r="N18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16.2" thickBot="1">
       <c r="A19" s="9">
         <v>10</v>
       </c>
@@ -1493,7 +1585,7 @@
       <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="63"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="6">
         <v>5</v>
       </c>
@@ -1504,9 +1596,12 @@
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="71"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.2" thickBot="1">
+      <c r="L19" s="56"/>
+      <c r="N19" s="75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16.2" thickBot="1">
       <c r="A20" s="9">
         <v>11</v>
       </c>
@@ -1519,7 +1614,7 @@
       <c r="D20" s="27">
         <v>4</v>
       </c>
-      <c r="E20" s="63"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="6">
         <v>5</v>
       </c>
@@ -1532,9 +1627,15 @@
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="71"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L20" s="56"/>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20" s="75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="9">
         <v>12</v>
       </c>
@@ -1547,7 +1648,7 @@
       <c r="D21" s="30">
         <v>4</v>
       </c>
-      <c r="E21" s="63"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="6">
         <v>5</v>
       </c>
@@ -1558,9 +1659,12 @@
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="71"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L21" s="56"/>
+      <c r="N21" s="75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="9">
         <v>13</v>
       </c>
@@ -1573,7 +1677,7 @@
       <c r="D22" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="63"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="6">
         <v>5</v>
       </c>
@@ -1586,9 +1690,15 @@
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="72"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="L22" s="57"/>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22" s="75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="9">
         <v>14</v>
       </c>
@@ -1599,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="63"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="6" t="s">
         <v>34</v>
       </c>
@@ -1617,8 +1727,11 @@
       <c r="L23" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N23" s="75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="11">
         <v>15</v>
       </c>
@@ -1631,7 +1744,7 @@
       <c r="D24" s="29">
         <v>5</v>
       </c>
-      <c r="E24" s="63"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="6">
         <v>5</v>
       </c>
@@ -1641,8 +1754,11 @@
       <c r="J24" s="40"/>
       <c r="K24" s="40"/>
       <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N24" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="12">
         <v>16</v>
       </c>
@@ -1655,7 +1771,7 @@
       <c r="D25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="63"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="6">
         <v>5</v>
       </c>
@@ -1667,15 +1783,21 @@
       <c r="J25" s="40"/>
       <c r="K25" s="40"/>
       <c r="L25" s="40"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="M25" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="10">
         <v>17</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="63"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="6"/>
       <c r="G26" s="37"/>
       <c r="H26" s="39"/>
@@ -1683,13 +1805,14 @@
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="58"/>
+      <c r="N26" s="75"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="64"/>
+      <c r="E27" s="69"/>
       <c r="F27" s="5"/>
       <c r="G27" s="38"/>
       <c r="H27" s="39"/>
@@ -1697,8 +1820,9 @@
       <c r="J27" s="40"/>
       <c r="K27" s="40"/>
       <c r="L27" s="40"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="N27" s="75"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1707,38 +1831,38 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="56"/>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A29" s="53"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A30" s="54"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A31" s="54"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A32" s="54"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="7"/>
@@ -1750,21 +1874,21 @@
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="51"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:7" ht="15.75" customHeight="1"/>
@@ -2763,10 +2887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2784,33 +2908,33 @@
     <col min="12" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4">
-      <c r="A1" s="53"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.4">
-      <c r="A2" s="54"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.4">
+    <row r="1" spans="1:13" ht="14.4">
+      <c r="A1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4">
+      <c r="A2" s="59"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2818,33 +2942,33 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="14.4">
-      <c r="A5" s="53"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:12" ht="10.199999999999999" customHeight="1" thickBot="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-    </row>
-    <row r="8" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="14.4">
+      <c r="A5" s="58"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" ht="31.5" customHeight="1">
+      <c r="A6" s="64"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" ht="10.199999999999999" customHeight="1" thickBot="1">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+    </row>
+    <row r="8" spans="1:13" ht="66.599999999999994" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -2879,8 +3003,11 @@
         <v>59</v>
       </c>
       <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" ht="16.2" thickBot="1">
+      <c r="M8" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.2" thickBot="1">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -2901,12 +3028,12 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="70" t="s">
         <v>62</v>
       </c>
       <c r="L9" s="40"/>
     </row>
-    <row r="10" spans="1:12" ht="16.2" thickBot="1">
+    <row r="10" spans="1:13" ht="16.2" thickBot="1">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -2933,10 +3060,10 @@
         <v>34</v>
       </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="68"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="40"/>
     </row>
-    <row r="11" spans="1:12" ht="16.2" thickBot="1">
+    <row r="11" spans="1:13" ht="16.2" thickBot="1">
       <c r="A11" s="9">
         <v>3</v>
       </c>
@@ -2961,10 +3088,10 @@
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="68"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12" ht="16.2" thickBot="1">
+    <row r="12" spans="1:13" ht="16.2" thickBot="1">
       <c r="A12" s="9">
         <v>4</v>
       </c>
@@ -2987,10 +3114,10 @@
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="68"/>
+      <c r="K12" s="71"/>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" ht="16.2" thickBot="1">
+    <row r="13" spans="1:13" ht="16.2" thickBot="1">
       <c r="A13" s="9">
         <v>5</v>
       </c>
@@ -3015,10 +3142,10 @@
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="68"/>
+      <c r="K13" s="71"/>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" ht="16.2" thickBot="1">
+    <row r="14" spans="1:13" ht="16.2" thickBot="1">
       <c r="A14" s="9">
         <v>6</v>
       </c>
@@ -3047,10 +3174,10 @@
       <c r="J14" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="68"/>
+      <c r="K14" s="71"/>
       <c r="L14" s="40"/>
     </row>
-    <row r="15" spans="1:12" ht="16.2" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="16.2" customHeight="1" thickBot="1">
       <c r="A15" s="9">
         <v>7</v>
       </c>
@@ -3073,10 +3200,10 @@
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="68"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="1:12" ht="16.2" thickBot="1">
+    <row r="16" spans="1:13" ht="16.2" thickBot="1">
       <c r="A16" s="9">
         <v>8</v>
       </c>
@@ -3097,7 +3224,7 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="68"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
@@ -3123,7 +3250,7 @@
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="68"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="40"/>
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
@@ -3147,7 +3274,7 @@
       <c r="J18" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="68"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:12" ht="16.2" thickBot="1">
@@ -3175,7 +3302,7 @@
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="68"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:12" ht="16.2" thickBot="1">
@@ -3203,7 +3330,7 @@
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="68"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -3231,7 +3358,7 @@
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="68"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="40"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -3259,7 +3386,7 @@
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="40"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
@@ -3293,8 +3420,8 @@
       <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="33"/>
@@ -3317,36 +3444,36 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="7"/>
@@ -3357,20 +3484,20 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -4356,12 +4483,12 @@
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="F26:F29"/>
+    <mergeCell ref="K9:K22"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="K9:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
